--- a/biology/Zoologie/Eurema_desjardinsii/Eurema_desjardinsii.xlsx
+++ b/biology/Zoologie/Eurema_desjardinsii/Eurema_desjardinsii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eurema  desjardinsii est un insecte lépidoptère de la famille des Pieridae, de la sous-famille des Coliadinae et du genre Eurema présent en Afrique.
 </t>
@@ -511,15 +523,13 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Eurema desjardinsii a été décrit par Jean-Baptiste Alphonse Dechauffour de Boisduval en 1833 sous le nom de Xanthidia desjardinsi..
-Synonyme : Teria aliena Butler, 1880; Terias marshalli Butler, 1897[1]..
-Noms vernaculaires
-Ce papillon se nomme en anglais Angled Grass Yellow [1].
-Sous-espèces
-Eurema desjardinsi desjardinsi présent à Madagascar.
-Eurema desjardinsi marshalli (Butler, 1898) présent au Kenya[1].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eurema desjardinsii a été décrit par Jean-Baptiste Alphonse Dechauffour de Boisduval en 1833 sous le nom de Xanthidia desjardinsi..
+Synonyme : Teria aliena Butler, 1880; Terias marshalli Butler, 1897..
+</t>
         </is>
       </c>
     </row>
@@ -544,12 +554,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">C'est un  papillon d'une envergure variant de 35 mm à 38 mm pour les mâles et 37 mm à 40 mm pour les femelles. Il est de couleur jaune avec sur la face antérieure une bordure marron plus large aux antérieures vers l'apex.
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce papillon se nomme en anglais Angled Grass Yellow .
 </t>
         </is>
       </c>
@@ -575,15 +591,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Eurema desjardinsi vole toute l'année en plusieurs générations.
-Plantes hôtes
-Ses plantes hôtes sont Cassia mimosoides et Hypericum aethiopicum[1].
-</t>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Eurema desjardinsi desjardinsi présent à Madagascar.
+Eurema desjardinsi marshalli (Butler, 1898) présent au Kenya.</t>
         </is>
       </c>
     </row>
@@ -608,16 +628,156 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un  papillon d'une envergure variant de 35 mm à 38 mm pour les mâles et 37 mm à 40 mm pour les femelles. Il est de couleur jaune avec sur la face antérieure une bordure marron plus large aux antérieures vers l'apex.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Eurema_desjardinsii</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eurema_desjardinsii</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eurema desjardinsi vole toute l'année en plusieurs générations.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Eurema_desjardinsii</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eurema_desjardinsii</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses plantes hôtes sont Cassia mimosoides et Hypericum aethiopicum.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Eurema_desjardinsii</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eurema_desjardinsii</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est présent dans toute l'Afrique, à Madagascar, dans l'Archipel des Comores, à l'Île Maurice et à La Réunion[1],[2].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est présent dans toute l'Afrique, à Madagascar, dans l'Archipel des Comores, à l'Île Maurice et à La Réunion,.
 Sur les autres projets Wikimedia :
 Eurema desjardinsii, sur Wikimedia CommonsEurema desjardinsii, sur Wikispecies
-Protection
-Pas de statut de protection particulier.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Eurema_desjardinsii</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eurema_desjardinsii</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
